--- a/xlsx/華盛頓州_intext.xlsx
+++ b/xlsx/華盛頓州_intext.xlsx
@@ -29,7 +29,7 @@
     <t>华盛顿</t>
   </si>
   <si>
-    <t>政策_政策_美國_華盛頓州</t>
+    <t>体育运动_体育运动_袋棍球_華盛頓州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
